--- a/Manuscript/Tables/map of analyses.xlsx
+++ b/Manuscript/Tables/map of analyses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmcbe\OneDrive\TVAttention\Manuscript\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\OneDrive\TVAttention\Manuscript\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{99B9731B-D0A0-4BC1-ADFB-AD0FA3B55558}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F1E634D-64D2-4B90-A715-DC4AABE00953}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D3622-215A-4EAC-A0D3-B77B47BE8D1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="1020" windowWidth="12504" windowHeight="10272" xr2:uid="{EA4A3DBB-8C3A-4FD7-87FE-73BC5A32FF3C}"/>
+    <workbookView xWindow="6876" yWindow="1872" windowWidth="16128" windowHeight="9720" xr2:uid="{EA4A3DBB-8C3A-4FD7-87FE-73BC5A32FF3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Covariate set</t>
   </si>
   <si>
-    <t>Logistic regression (504 total, 192 non-redundant)</t>
-  </si>
-  <si>
     <t>Linear regression (24 total)</t>
   </si>
   <si>
@@ -100,21 +97,6 @@
   </si>
   <si>
     <t>Incorporated vs not incorporated</t>
-  </si>
-  <si>
-    <r>
-      <t>100, 102, 104, …., 130</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (21 levels)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -166,6 +148,24 @@
   </si>
   <si>
     <t>Propensity score analysis, Stratification (240 total)</t>
+  </si>
+  <si>
+    <r>
+      <t>110, 112, 114, …., 130</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (21 levels)</t>
+    </r>
+  </si>
+  <si>
+    <t>Logistic regression (504 total, 200 non-redundant)</t>
   </si>
 </sst>
 </file>
@@ -260,14 +260,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7984FF-D43F-4A76-B35D-9552D6ECEB8C}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -596,20 +596,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:2" s="3" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -626,7 +626,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,10 +663,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -675,14 +675,14 @@
     </row>
     <row r="14" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6"/>
     </row>
@@ -708,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,10 +721,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -734,7 +734,7 @@
     <row r="24" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="6"/>
     </row>
@@ -752,7 +752,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -773,26 +773,26 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
     <row r="35" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B36" s="6"/>
     </row>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -840,18 +840,18 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="7.05" customHeight="1" x14ac:dyDescent="0.25">
